--- a/dataframes.xlsx
+++ b/dataframes.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/CounterContext/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2BCCC4-B243-E343-95C5-4266695B9F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="new_df_building_design" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
     <sheet name="new_df_museum" sheetId="14" r:id="rId14"/>
     <sheet name="new_df_food_hall" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -39,7 +33,7 @@
     <t>Comment_ID</t>
   </si>
   <si>
-    <t>Is there anything else that you would like the team to consider as they continue to develop the design of the buildings and public spaces?</t>
+    <t>Recommendations</t>
   </si>
   <si>
     <t>FF00302</t>
@@ -159,67 +153,70 @@
     <t>FF09000</t>
   </si>
   <si>
-    <t>FF09500</t>
-  </si>
-  <si>
-    <t>FF09700</t>
-  </si>
-  <si>
-    <t>FF10000</t>
-  </si>
-  <si>
-    <t>FF10401</t>
-  </si>
-  <si>
-    <t>FF10403</t>
-  </si>
-  <si>
-    <t>FF10404</t>
-  </si>
-  <si>
-    <t>FF10702</t>
-  </si>
-  <si>
-    <t>FF10704</t>
-  </si>
-  <si>
-    <t>FF10707</t>
-  </si>
-  <si>
-    <t>FF10800</t>
-  </si>
-  <si>
-    <t>FF11300</t>
-  </si>
-  <si>
-    <t>FF11500</t>
-  </si>
-  <si>
-    <t>FF12102</t>
+    <t>FF09400</t>
+  </si>
+  <si>
+    <t>FF09600</t>
+  </si>
+  <si>
+    <t>FF09900</t>
+  </si>
+  <si>
+    <t>FF10301</t>
+  </si>
+  <si>
+    <t>FF10303</t>
+  </si>
+  <si>
+    <t>FF10304</t>
+  </si>
+  <si>
+    <t>FF10602</t>
+  </si>
+  <si>
+    <t>FF10604</t>
+  </si>
+  <si>
+    <t>FF10607</t>
+  </si>
+  <si>
+    <t>FF10700</t>
+  </si>
+  <si>
+    <t>FF11200</t>
+  </si>
+  <si>
+    <t>FF11400</t>
+  </si>
+  <si>
+    <t>FF12002</t>
+  </si>
+  <si>
+    <t>FF12203</t>
   </si>
   <si>
     <t>FF12303</t>
   </si>
   <si>
-    <t>FF12403</t>
-  </si>
-  <si>
-    <t>FF12702</t>
-  </si>
-  <si>
-    <t>FF12703</t>
-  </si>
-  <si>
-    <t>FF12704</t>
-  </si>
-  <si>
-    <t>FF13200</t>
-  </si>
-  <si>
-    <t>FF13701</t>
-  </si>
-  <si>
-    <t>FF14203</t>
+    <t>FF12602</t>
+  </si>
+  <si>
+    <t>FF12603</t>
+  </si>
+  <si>
+    <t>FF12604</t>
+  </si>
+  <si>
+    <t>FF13100</t>
+  </si>
+  <si>
+    <t>FF13601</t>
+  </si>
+  <si>
+    <t>FF14103</t>
+  </si>
+  <si>
+    <t>FF14401</t>
   </si>
   <si>
     <t>FF14501</t>
@@ -231,106 +228,103 @@
     <t>FF14701</t>
   </si>
   <si>
-    <t>FF14801</t>
-  </si>
-  <si>
-    <t>FF15500</t>
-  </si>
-  <si>
-    <t>FF15901</t>
-  </si>
-  <si>
-    <t>FF16101</t>
-  </si>
-  <si>
-    <t>FF16301</t>
-  </si>
-  <si>
-    <t>FF18002</t>
-  </si>
-  <si>
-    <t>FF18301</t>
-  </si>
-  <si>
-    <t>FF18302</t>
-  </si>
-  <si>
-    <t>FF18303</t>
-  </si>
-  <si>
-    <t>FF18304</t>
-  </si>
-  <si>
-    <t>FF18305</t>
-  </si>
-  <si>
-    <t>FF18306</t>
-  </si>
-  <si>
-    <t>FF18307</t>
-  </si>
-  <si>
-    <t>FF18500</t>
+    <t>FF15400</t>
+  </si>
+  <si>
+    <t>FF15801</t>
+  </si>
+  <si>
+    <t>FF16001</t>
+  </si>
+  <si>
+    <t>FF16201</t>
+  </si>
+  <si>
+    <t>FF17902</t>
+  </si>
+  <si>
+    <t>FF18201</t>
+  </si>
+  <si>
+    <t>FF18202</t>
+  </si>
+  <si>
+    <t>FF18203</t>
+  </si>
+  <si>
+    <t>FF18204</t>
+  </si>
+  <si>
+    <t>FF18205</t>
+  </si>
+  <si>
+    <t>FF18206</t>
+  </si>
+  <si>
+    <t>FF18207</t>
+  </si>
+  <si>
+    <t>FF18400</t>
+  </si>
+  <si>
+    <t>FF18600</t>
   </si>
   <si>
     <t>FF18700</t>
   </si>
   <si>
-    <t>FF18800</t>
-  </si>
-  <si>
-    <t>FF19000</t>
-  </si>
-  <si>
-    <t>FF19102</t>
-  </si>
-  <si>
-    <t>FF20302</t>
-  </si>
-  <si>
-    <t>FF21601</t>
-  </si>
-  <si>
-    <t>FF21602</t>
-  </si>
-  <si>
-    <t>FF21700</t>
-  </si>
-  <si>
-    <t>FF22501</t>
-  </si>
-  <si>
-    <t>FF22502</t>
-  </si>
-  <si>
-    <t>FF23401</t>
-  </si>
-  <si>
-    <t>FF23700</t>
-  </si>
-  <si>
-    <t>FF23900</t>
-  </si>
-  <si>
-    <t>FF24402</t>
-  </si>
-  <si>
-    <t>FF24403</t>
-  </si>
-  <si>
-    <t>FF25800</t>
+    <t>FF18900</t>
+  </si>
+  <si>
+    <t>FF19002</t>
+  </si>
+  <si>
+    <t>FF20202</t>
+  </si>
+  <si>
+    <t>FF21501</t>
+  </si>
+  <si>
+    <t>FF21502</t>
+  </si>
+  <si>
+    <t>FF21600</t>
+  </si>
+  <si>
+    <t>FF22401</t>
+  </si>
+  <si>
+    <t>FF22402</t>
+  </si>
+  <si>
+    <t>FF23301</t>
+  </si>
+  <si>
+    <t>FF23600</t>
+  </si>
+  <si>
+    <t>FF23800</t>
+  </si>
+  <si>
+    <t>FF24302</t>
+  </si>
+  <si>
+    <t>FF24303</t>
+  </si>
+  <si>
+    <t>FF25700</t>
+  </si>
+  <si>
+    <t>FF26100</t>
   </si>
   <si>
     <t>FF26200</t>
   </si>
   <si>
-    <t>FF26300</t>
+    <t>FF26900</t>
   </si>
   <si>
     <t>FF27000</t>
-  </si>
-  <si>
-    <t>FF27100</t>
   </si>
   <si>
     <t>I would, ideally, like the team to consider building something that would be Huddersfield's answer to Tropical World (without the animals).</t>
@@ -772,181 +766,181 @@
     <t>FF08603</t>
   </si>
   <si>
-    <t>FF09600</t>
-  </si>
-  <si>
-    <t>FF10100</t>
-  </si>
-  <si>
-    <t>FF10300</t>
-  </si>
-  <si>
-    <t>FF10405</t>
-  </si>
-  <si>
-    <t>FF10501</t>
-  </si>
-  <si>
-    <t>FF10701</t>
-  </si>
-  <si>
-    <t>FF10703</t>
-  </si>
-  <si>
-    <t>FF10708</t>
-  </si>
-  <si>
-    <t>FF11001</t>
-  </si>
-  <si>
-    <t>FF11002</t>
+    <t>FF09500</t>
+  </si>
+  <si>
+    <t>FF10000</t>
+  </si>
+  <si>
+    <t>FF10200</t>
+  </si>
+  <si>
+    <t>FF10305</t>
+  </si>
+  <si>
+    <t>FF10401</t>
+  </si>
+  <si>
+    <t>FF10601</t>
+  </si>
+  <si>
+    <t>FF10603</t>
+  </si>
+  <si>
+    <t>FF10608</t>
+  </si>
+  <si>
+    <t>FF10901</t>
+  </si>
+  <si>
+    <t>FF10902</t>
+  </si>
+  <si>
+    <t>FF11500</t>
   </si>
   <si>
     <t>FF11600</t>
   </si>
   <si>
-    <t>FF11700</t>
-  </si>
-  <si>
-    <t>FF12000</t>
-  </si>
-  <si>
-    <t>FF12401</t>
-  </si>
-  <si>
-    <t>FF12600</t>
-  </si>
-  <si>
-    <t>FF12701</t>
+    <t>FF11900</t>
+  </si>
+  <si>
+    <t>FF12301</t>
+  </si>
+  <si>
+    <t>FF12500</t>
+  </si>
+  <si>
+    <t>FF12601</t>
+  </si>
+  <si>
+    <t>FF12800</t>
   </si>
   <si>
     <t>FF12900</t>
   </si>
   <si>
-    <t>FF13000</t>
-  </si>
-  <si>
-    <t>FF13302</t>
-  </si>
-  <si>
-    <t>FF13303</t>
-  </si>
-  <si>
-    <t>FF13400</t>
+    <t>FF13202</t>
+  </si>
+  <si>
+    <t>FF13203</t>
+  </si>
+  <si>
+    <t>FF13300</t>
+  </si>
+  <si>
+    <t>FF13502</t>
   </si>
   <si>
     <t>FF13602</t>
   </si>
   <si>
-    <t>FF13702</t>
-  </si>
-  <si>
-    <t>FF13703</t>
-  </si>
-  <si>
-    <t>FF13705</t>
-  </si>
-  <si>
-    <t>FF14001</t>
-  </si>
-  <si>
-    <t>FF14100</t>
-  </si>
-  <si>
-    <t>FF14201</t>
-  </si>
-  <si>
-    <t>FF14300</t>
-  </si>
-  <si>
-    <t>FF14401</t>
-  </si>
-  <si>
-    <t>FF14503</t>
-  </si>
-  <si>
-    <t>FF14504</t>
-  </si>
-  <si>
-    <t>FF14802</t>
-  </si>
-  <si>
-    <t>FF15200</t>
-  </si>
-  <si>
-    <t>FF15302</t>
-  </si>
-  <si>
-    <t>FF15304</t>
-  </si>
-  <si>
-    <t>FF15603</t>
-  </si>
-  <si>
-    <t>FF15802</t>
-  </si>
-  <si>
-    <t>FF16400</t>
-  </si>
-  <si>
-    <t>FF16601</t>
-  </si>
-  <si>
-    <t>FF17100</t>
-  </si>
-  <si>
-    <t>FF17600</t>
-  </si>
-  <si>
-    <t>FF17800</t>
-  </si>
-  <si>
-    <t>FF18201</t>
-  </si>
-  <si>
-    <t>FF18403</t>
-  </si>
-  <si>
-    <t>FF18601</t>
-  </si>
-  <si>
-    <t>FF19104</t>
-  </si>
-  <si>
-    <t>FF19500</t>
-  </si>
-  <si>
-    <t>FF20303</t>
-  </si>
-  <si>
-    <t>FF21200</t>
-  </si>
-  <si>
-    <t>FF21801</t>
-  </si>
-  <si>
-    <t>FF21802</t>
-  </si>
-  <si>
-    <t>FF23402</t>
-  </si>
-  <si>
-    <t>FF24000</t>
-  </si>
-  <si>
-    <t>FF24200</t>
-  </si>
-  <si>
-    <t>FF24800</t>
-  </si>
-  <si>
-    <t>FF25100</t>
-  </si>
-  <si>
-    <t>FF26102</t>
-  </si>
-  <si>
-    <t>FF26900</t>
+    <t>FF13603</t>
+  </si>
+  <si>
+    <t>FF13605</t>
+  </si>
+  <si>
+    <t>FF13901</t>
+  </si>
+  <si>
+    <t>FF14000</t>
+  </si>
+  <si>
+    <t>FF14101</t>
+  </si>
+  <si>
+    <t>FF14200</t>
+  </si>
+  <si>
+    <t>FF14301</t>
+  </si>
+  <si>
+    <t>FF14403</t>
+  </si>
+  <si>
+    <t>FF14404</t>
+  </si>
+  <si>
+    <t>FF14702</t>
+  </si>
+  <si>
+    <t>FF15100</t>
+  </si>
+  <si>
+    <t>FF15202</t>
+  </si>
+  <si>
+    <t>FF15204</t>
+  </si>
+  <si>
+    <t>FF15503</t>
+  </si>
+  <si>
+    <t>FF15702</t>
+  </si>
+  <si>
+    <t>FF16300</t>
+  </si>
+  <si>
+    <t>FF16501</t>
+  </si>
+  <si>
+    <t>FF17000</t>
+  </si>
+  <si>
+    <t>FF17500</t>
+  </si>
+  <si>
+    <t>FF17700</t>
+  </si>
+  <si>
+    <t>FF18101</t>
+  </si>
+  <si>
+    <t>FF18303</t>
+  </si>
+  <si>
+    <t>FF18501</t>
+  </si>
+  <si>
+    <t>FF19004</t>
+  </si>
+  <si>
+    <t>FF19400</t>
+  </si>
+  <si>
+    <t>FF20203</t>
+  </si>
+  <si>
+    <t>FF21100</t>
+  </si>
+  <si>
+    <t>FF21701</t>
+  </si>
+  <si>
+    <t>FF21702</t>
+  </si>
+  <si>
+    <t>FF23302</t>
+  </si>
+  <si>
+    <t>FF23900</t>
+  </si>
+  <si>
+    <t>FF24100</t>
+  </si>
+  <si>
+    <t>FF24700</t>
+  </si>
+  <si>
+    <t>FF25000</t>
+  </si>
+  <si>
+    <t>FF26002</t>
+  </si>
+  <si>
+    <t>FF26800</t>
   </si>
   <si>
     <t>Tropical World in Roundhay Park, Leeds is a place where people are reminded of the importance of preserving the natural world.</t>
@@ -1289,16 +1283,16 @@
     <t>FF04808</t>
   </si>
   <si>
-    <t>FF13902</t>
-  </si>
-  <si>
-    <t>FF17701</t>
-  </si>
-  <si>
-    <t>FF23001</t>
-  </si>
-  <si>
-    <t>FF25702</t>
+    <t>FF13802</t>
+  </si>
+  <si>
+    <t>FF17601</t>
+  </si>
+  <si>
+    <t>FF22901</t>
+  </si>
+  <si>
+    <t>FF25602</t>
   </si>
   <si>
     <t>It will all end up cheap and tacky as was the new stuff you plan to knock down</t>
@@ -1346,19 +1340,19 @@
     <t>FF05100</t>
   </si>
   <si>
-    <t>FF10705</t>
-  </si>
-  <si>
-    <t>FF12306</t>
-  </si>
-  <si>
-    <t>FF13301</t>
-  </si>
-  <si>
-    <t>FF21603</t>
-  </si>
-  <si>
-    <t>FF24401</t>
+    <t>FF10605</t>
+  </si>
+  <si>
+    <t>FF12206</t>
+  </si>
+  <si>
+    <t>FF13201</t>
+  </si>
+  <si>
+    <t>FF21503</t>
+  </si>
+  <si>
+    <t>FF24301</t>
   </si>
   <si>
     <t>Ensure public library provides the same service.</t>
@@ -1408,13 +1402,13 @@
     <t>FF04810</t>
   </si>
   <si>
-    <t>FF12200</t>
-  </si>
-  <si>
-    <t>FF20600</t>
-  </si>
-  <si>
-    <t>FF22701</t>
+    <t>FF12100</t>
+  </si>
+  <si>
+    <t>FF20500</t>
+  </si>
+  <si>
+    <t>FF22601</t>
   </si>
   <si>
     <t>Even then you left the roof open in mid winter, ruining our event.</t>
@@ -1471,43 +1465,43 @@
     <t>FF07702</t>
   </si>
   <si>
-    <t>FF11800</t>
-  </si>
-  <si>
-    <t>FF15601</t>
-  </si>
-  <si>
-    <t>FF16500</t>
-  </si>
-  <si>
-    <t>FF16800</t>
-  </si>
-  <si>
-    <t>FF17900</t>
-  </si>
-  <si>
-    <t>FF19902</t>
-  </si>
-  <si>
-    <t>FF20900</t>
-  </si>
-  <si>
-    <t>FF21501</t>
-  </si>
-  <si>
-    <t>FF22200</t>
-  </si>
-  <si>
-    <t>FF22900</t>
-  </si>
-  <si>
-    <t>FF23300</t>
-  </si>
-  <si>
-    <t>FF25500</t>
-  </si>
-  <si>
-    <t>FF26501</t>
+    <t>FF11700</t>
+  </si>
+  <si>
+    <t>FF15501</t>
+  </si>
+  <si>
+    <t>FF16400</t>
+  </si>
+  <si>
+    <t>FF16700</t>
+  </si>
+  <si>
+    <t>FF17800</t>
+  </si>
+  <si>
+    <t>FF19802</t>
+  </si>
+  <si>
+    <t>FF20800</t>
+  </si>
+  <si>
+    <t>FF21401</t>
+  </si>
+  <si>
+    <t>FF22100</t>
+  </si>
+  <si>
+    <t>FF22800</t>
+  </si>
+  <si>
+    <t>FF23200</t>
+  </si>
+  <si>
+    <t>FF25400</t>
+  </si>
+  <si>
+    <t>FF26401</t>
   </si>
   <si>
     <t>Ensure there are well maintained, accessible and free public toilets.</t>
@@ -1585,13 +1579,13 @@
     <t>FF01902</t>
   </si>
   <si>
-    <t>FF13901</t>
-  </si>
-  <si>
-    <t>FF18203</t>
-  </si>
-  <si>
-    <t>FF24302</t>
+    <t>FF13801</t>
+  </si>
+  <si>
+    <t>FF18103</t>
+  </si>
+  <si>
+    <t>FF24202</t>
   </si>
   <si>
     <t>Toilets and seating are really important for older people, parents with children, less mobile people (in fact pretty well everyone) if you want them to come into town.</t>
@@ -1624,19 +1618,19 @@
     <t>I support the ambition to further develop Huddersfield's performance credibility.</t>
   </si>
   <si>
-    <t>FF13704</t>
-  </si>
-  <si>
-    <t>FF14702</t>
-  </si>
-  <si>
-    <t>FF16200</t>
-  </si>
-  <si>
-    <t>FF21303</t>
-  </si>
-  <si>
-    <t>FF26703</t>
+    <t>FF13604</t>
+  </si>
+  <si>
+    <t>FF14602</t>
+  </si>
+  <si>
+    <t>FF16100</t>
+  </si>
+  <si>
+    <t>FF21203</t>
+  </si>
+  <si>
+    <t>FF26603</t>
   </si>
   <si>
     <t>It would make the town attractive and liveable.</t>
@@ -1667,373 +1661,373 @@
     <t>FF08601</t>
   </si>
   <si>
-    <t>FF10601</t>
+    <t>FF10501</t>
+  </si>
+  <si>
+    <t>FF19900</t>
+  </si>
+  <si>
+    <t>FF20400</t>
+  </si>
+  <si>
+    <t>FF26001</t>
+  </si>
+  <si>
+    <t>Bodycare is one of the shops doing this so that could be another big shop that leaves huddersfield.</t>
+  </si>
+  <si>
+    <t>Safety and security</t>
+  </si>
+  <si>
+    <t>People who live in the  town centre will care about it, care for it, nobody else will.</t>
+  </si>
+  <si>
+    <t>Safety of children.</t>
+  </si>
+  <si>
+    <t>Lighting, making a well lit area can help ensure people's safety especially in winter time.</t>
+  </si>
+  <si>
+    <t>Safety, quality and type of retail outlets, reducing the opportunity to add to Huddersfield's reputation as a place to get drugs or be stabbed</t>
+  </si>
+  <si>
+    <t>Ongoing maintenance</t>
+  </si>
+  <si>
+    <t>Safety and lighting.</t>
+  </si>
+  <si>
+    <t>FF00201</t>
+  </si>
+  <si>
+    <t>FF00308</t>
+  </si>
+  <si>
+    <t>FF01500</t>
+  </si>
+  <si>
+    <t>FF01601</t>
+  </si>
+  <si>
+    <t>FF02401</t>
+  </si>
+  <si>
+    <t>FF02602</t>
+  </si>
+  <si>
+    <t>FF02603</t>
+  </si>
+  <si>
+    <t>FF04401</t>
+  </si>
+  <si>
+    <t>FF05701</t>
+  </si>
+  <si>
+    <t>FF08000</t>
+  </si>
+  <si>
+    <t>FF08801</t>
+  </si>
+  <si>
+    <t>FF13902</t>
+  </si>
+  <si>
+    <t>FF15201</t>
+  </si>
+  <si>
+    <t>FF15206</t>
+  </si>
+  <si>
+    <t>FF15304</t>
+  </si>
+  <si>
+    <t>FF15305</t>
+  </si>
+  <si>
+    <t>FF16800</t>
+  </si>
+  <si>
+    <t>FF17300</t>
+  </si>
+  <si>
+    <t>FF18302</t>
+  </si>
+  <si>
+    <t>FF19003</t>
+  </si>
+  <si>
+    <t>FF19300</t>
+  </si>
+  <si>
+    <t>FF19600</t>
+  </si>
+  <si>
+    <t>FF19803</t>
+  </si>
+  <si>
+    <t>FF20100</t>
+  </si>
+  <si>
+    <t>FF22000</t>
+  </si>
+  <si>
+    <t>FF23400</t>
+  </si>
+  <si>
+    <t>FF24305</t>
+  </si>
+  <si>
+    <t>FF24400</t>
+  </si>
+  <si>
+    <t>FF24600</t>
+  </si>
+  <si>
+    <t>FF26300</t>
+  </si>
+  <si>
+    <t>FF26601</t>
+  </si>
+  <si>
+    <t>Carbon footprint.</t>
+  </si>
+  <si>
+    <t>Businesses that are carbon neutral could be encouraged.</t>
+  </si>
+  <si>
+    <t>lots of electric charging points in the new car park</t>
+  </si>
+  <si>
+    <t>Take into consideration access, vehicle access and parking.</t>
+  </si>
+  <si>
+    <t>Free parking and covered streets.</t>
+  </si>
+  <si>
+    <t>Barnsley, Halifax town centres and more car parking .</t>
+  </si>
+  <si>
+    <t>It is especially important to the elderly to have easy access parking in the town centre.</t>
+  </si>
+  <si>
+    <t>More parking.</t>
+  </si>
+  <si>
+    <t>Make the market hall a destination - put on events with free stalls and free parking.</t>
+  </si>
+  <si>
+    <t>Cycling and cycle parking</t>
+  </si>
+  <si>
+    <t>Build more carparks and car access to the town centre, it is how the majority want to access it.</t>
+  </si>
+  <si>
+    <t>They divide and significantly shrink the site in favour of motor cars.</t>
+  </si>
+  <si>
+    <t>No more cars in the town centre.</t>
+  </si>
+  <si>
+    <t>Let's not waste it on roads and parking.</t>
+  </si>
+  <si>
+    <t>Not just free parking for the privilege people who can afford electric cars.</t>
+  </si>
+  <si>
+    <t>Don’t forget about people using cars</t>
+  </si>
+  <si>
+    <t>Parking..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parking is ridiculous in town at the moment.</t>
+  </si>
+  <si>
+    <t>Queensgate is also horrible for traffic and needs improving for people not in cars.</t>
+  </si>
+  <si>
+    <t>Toilets and parking</t>
+  </si>
+  <si>
+    <t>Parking and Toilets.</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Ensure adequate parking</t>
+  </si>
+  <si>
+    <t>See previous comments, car-parking, existing shops, encourage more shops to prevent people going to Leeds/Liverpool (L1) etc to shop and encourage them to come back to Huddersfield</t>
+  </si>
+  <si>
+    <t>More Parking in that area.</t>
+  </si>
+  <si>
+    <t>Stop vehicles going around the town hall and make the entrance more welcoming for weddings and it’s current events.</t>
+  </si>
+  <si>
+    <t>Toilets and closer parking</t>
+  </si>
+  <si>
+    <t>Easier access in a car</t>
+  </si>
+  <si>
+    <t>secure bike parking</t>
+  </si>
+  <si>
+    <t>No cars, car parking on the outside of town not in the middle, no half measures like bus gates.</t>
+  </si>
+  <si>
+    <t>FF00301</t>
+  </si>
+  <si>
+    <t>FF02202</t>
+  </si>
+  <si>
+    <t>FF02203</t>
+  </si>
+  <si>
+    <t>FF02204</t>
+  </si>
+  <si>
+    <t>FF10609</t>
+  </si>
+  <si>
+    <t>FF14504</t>
+  </si>
+  <si>
+    <t>FF20900</t>
+  </si>
+  <si>
+    <t>FF21301</t>
+  </si>
+  <si>
+    <t>FF21302</t>
+  </si>
+  <si>
+    <t>FF26501</t>
+  </si>
+  <si>
+    <t>I would like the team to consider missing out the museum.</t>
+  </si>
+  <si>
+    <t>What kind of museum are you proposing?</t>
+  </si>
+  <si>
+    <t>How will you incorporate the rugby league museum if this is still a viable option?</t>
+  </si>
+  <si>
+    <t>How will you prioritise what goes in the new museum and does Kirklees Council have the skills and resources in-house to achieve this?</t>
+  </si>
+  <si>
+    <t>It would be a blow to the town if the archive was not included within your plans as it has great value to local people like myself and visitors from around the world who come to research their family history.</t>
+  </si>
+  <si>
+    <t>We need to honour our industrial and cultural history.</t>
+  </si>
+  <si>
+    <t>Make sure there is enough annual funding for the museum or there is no point of having the museum.</t>
+  </si>
+  <si>
+    <t>tell us about the use of the current Tolson Museum.</t>
+  </si>
+  <si>
+    <t>what about plans for the national rugby league museum?</t>
+  </si>
+  <si>
+    <t>Don’t turn the museum into an experiment to promote multiculturalism or create myths to encourage migrants to feel good about themselves.</t>
+  </si>
+  <si>
+    <t>FF00304</t>
+  </si>
+  <si>
+    <t>FF00306</t>
+  </si>
+  <si>
+    <t>FF00307</t>
+  </si>
+  <si>
+    <t>FF02210</t>
+  </si>
+  <si>
+    <t>FF02601</t>
+  </si>
+  <si>
+    <t>FF04302</t>
+  </si>
+  <si>
+    <t>FF04803</t>
+  </si>
+  <si>
+    <t>FF05702</t>
+  </si>
+  <si>
+    <t>FF07401</t>
+  </si>
+  <si>
+    <t>FF09301</t>
+  </si>
+  <si>
+    <t>FF09302</t>
+  </si>
+  <si>
+    <t>FF09800</t>
+  </si>
+  <si>
+    <t>FF10100</t>
+  </si>
+  <si>
+    <t>FF12001</t>
+  </si>
+  <si>
+    <t>FF12302</t>
+  </si>
+  <si>
+    <t>FF12701</t>
+  </si>
+  <si>
+    <t>FF13501</t>
+  </si>
+  <si>
+    <t>FF15502</t>
+  </si>
+  <si>
+    <t>FF15600</t>
+  </si>
+  <si>
+    <t>FF15802</t>
+  </si>
+  <si>
+    <t>FF16502</t>
+  </si>
+  <si>
+    <t>FF17602</t>
+  </si>
+  <si>
+    <t>FF18503</t>
+  </si>
+  <si>
+    <t>FF18800</t>
+  </si>
+  <si>
+    <t>FF19700</t>
   </si>
   <si>
     <t>FF20000</t>
   </si>
   <si>
-    <t>FF20500</t>
-  </si>
-  <si>
-    <t>FF26101</t>
-  </si>
-  <si>
-    <t>Bodycare is one of the shops doing this so that could be another big shop that leaves huddersfield.</t>
-  </si>
-  <si>
-    <t>Safety and security</t>
-  </si>
-  <si>
-    <t>People who live in the  town centre will care about it, care for it, nobody else will.</t>
-  </si>
-  <si>
-    <t>Safety of children.</t>
-  </si>
-  <si>
-    <t>Lighting, making a well lit area can help ensure people's safety especially in winter time.</t>
-  </si>
-  <si>
-    <t>Safety, quality and type of retail outlets, reducing the opportunity to add to Huddersfield's reputation as a place to get drugs or be stabbed</t>
-  </si>
-  <si>
-    <t>Ongoing maintenance</t>
-  </si>
-  <si>
-    <t>Safety and lighting.</t>
-  </si>
-  <si>
-    <t>FF00201</t>
-  </si>
-  <si>
-    <t>FF00308</t>
-  </si>
-  <si>
-    <t>FF01500</t>
-  </si>
-  <si>
-    <t>FF01601</t>
-  </si>
-  <si>
-    <t>FF02401</t>
-  </si>
-  <si>
-    <t>FF02602</t>
-  </si>
-  <si>
-    <t>FF02603</t>
-  </si>
-  <si>
-    <t>FF04401</t>
-  </si>
-  <si>
-    <t>FF05701</t>
-  </si>
-  <si>
-    <t>FF08000</t>
-  </si>
-  <si>
-    <t>FF08801</t>
-  </si>
-  <si>
-    <t>FF14002</t>
-  </si>
-  <si>
-    <t>FF15301</t>
-  </si>
-  <si>
-    <t>FF15306</t>
-  </si>
-  <si>
-    <t>FF15404</t>
-  </si>
-  <si>
-    <t>FF15405</t>
-  </si>
-  <si>
-    <t>FF16900</t>
-  </si>
-  <si>
-    <t>FF17400</t>
-  </si>
-  <si>
-    <t>FF18402</t>
-  </si>
-  <si>
-    <t>FF19103</t>
-  </si>
-  <si>
-    <t>FF19400</t>
-  </si>
-  <si>
-    <t>FF19700</t>
-  </si>
-  <si>
-    <t>FF19903</t>
-  </si>
-  <si>
-    <t>FF20200</t>
-  </si>
-  <si>
-    <t>FF22100</t>
-  </si>
-  <si>
-    <t>FF23500</t>
-  </si>
-  <si>
-    <t>FF24405</t>
-  </si>
-  <si>
-    <t>FF24500</t>
-  </si>
-  <si>
-    <t>FF24700</t>
-  </si>
-  <si>
-    <t>FF26400</t>
-  </si>
-  <si>
-    <t>FF26701</t>
-  </si>
-  <si>
-    <t>Carbon footprint.</t>
-  </si>
-  <si>
-    <t>Businesses that are carbon neutral could be encouraged.</t>
-  </si>
-  <si>
-    <t>lots of electric charging points in the new car park</t>
-  </si>
-  <si>
-    <t>Take into consideration access, vehicle access and parking.</t>
-  </si>
-  <si>
-    <t>Free parking and covered streets.</t>
-  </si>
-  <si>
-    <t>Barnsley, Halifax town centres and more car parking .</t>
-  </si>
-  <si>
-    <t>It is especially important to the elderly to have easy access parking in the town centre.</t>
-  </si>
-  <si>
-    <t>More parking.</t>
-  </si>
-  <si>
-    <t>Make the market hall a destination - put on events with free stalls and free parking.</t>
-  </si>
-  <si>
-    <t>Cycling and cycle parking</t>
-  </si>
-  <si>
-    <t>Build more carparks and car access to the town centre, it is how the majority want to access it.</t>
-  </si>
-  <si>
-    <t>They divide and significantly shrink the site in favour of motor cars.</t>
-  </si>
-  <si>
-    <t>No more cars in the town centre.</t>
-  </si>
-  <si>
-    <t>Let's not waste it on roads and parking.</t>
-  </si>
-  <si>
-    <t>Not just free parking for the privilege people who can afford electric cars.</t>
-  </si>
-  <si>
-    <t>Don’t forget about people using cars</t>
-  </si>
-  <si>
-    <t>Parking..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parking is ridiculous in town at the moment.</t>
-  </si>
-  <si>
-    <t>Queensgate is also horrible for traffic and needs improving for people not in cars.</t>
-  </si>
-  <si>
-    <t>Toilets and parking</t>
-  </si>
-  <si>
-    <t>Parking and Toilets.</t>
-  </si>
-  <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>Ensure adequate parking</t>
-  </si>
-  <si>
-    <t>See previous comments, car-parking, existing shops, encourage more shops to prevent people going to Leeds/Liverpool (L1) etc to shop and encourage them to come back to Huddersfield</t>
-  </si>
-  <si>
-    <t>More Parking in that area.</t>
-  </si>
-  <si>
-    <t>Stop vehicles going around the town hall and make the entrance more welcoming for weddings and it’s current events.</t>
-  </si>
-  <si>
-    <t>Toilets and closer parking</t>
-  </si>
-  <si>
-    <t>Easier access in a car</t>
-  </si>
-  <si>
-    <t>secure bike parking</t>
-  </si>
-  <si>
-    <t>No cars, car parking on the outside of town not in the middle, no half measures like bus gates.</t>
-  </si>
-  <si>
-    <t>FF00301</t>
-  </si>
-  <si>
-    <t>FF02202</t>
-  </si>
-  <si>
-    <t>FF02203</t>
-  </si>
-  <si>
-    <t>FF02204</t>
-  </si>
-  <si>
-    <t>FF10709</t>
-  </si>
-  <si>
-    <t>FF14604</t>
-  </si>
-  <si>
-    <t>FF21000</t>
-  </si>
-  <si>
-    <t>FF21401</t>
-  </si>
-  <si>
-    <t>FF21402</t>
-  </si>
-  <si>
-    <t>FF26601</t>
-  </si>
-  <si>
-    <t>I would like the team to consider missing out the museum.</t>
-  </si>
-  <si>
-    <t>What kind of museum are you proposing?</t>
-  </si>
-  <si>
-    <t>How will you incorporate the rugby league museum if this is still a viable option?</t>
-  </si>
-  <si>
-    <t>How will you prioritise what goes in the new museum and does Kirklees Council have the skills and resources in-house to achieve this?</t>
-  </si>
-  <si>
-    <t>It would be a blow to the town if the archive was not included within your plans as it has great value to local people like myself and visitors from around the world who come to research their family history.</t>
-  </si>
-  <si>
-    <t>We need to honour our industrial and cultural history.</t>
-  </si>
-  <si>
-    <t>Make sure there is enough annual funding for the museum or there is no point of having the museum.</t>
-  </si>
-  <si>
-    <t>tell us about the use of the current Tolson Museum.</t>
-  </si>
-  <si>
-    <t>what about plans for the national rugby league museum?</t>
-  </si>
-  <si>
-    <t>Don’t turn the museum into an experiment to promote multiculturalism or create myths to encourage migrants to feel good about themselves.</t>
-  </si>
-  <si>
-    <t>FF00304</t>
-  </si>
-  <si>
-    <t>FF00306</t>
-  </si>
-  <si>
-    <t>FF00307</t>
-  </si>
-  <si>
-    <t>FF02210</t>
-  </si>
-  <si>
-    <t>FF02601</t>
-  </si>
-  <si>
-    <t>FF04302</t>
-  </si>
-  <si>
-    <t>FF04803</t>
-  </si>
-  <si>
-    <t>FF05702</t>
-  </si>
-  <si>
-    <t>FF07401</t>
-  </si>
-  <si>
-    <t>FF09401</t>
-  </si>
-  <si>
-    <t>FF09402</t>
-  </si>
-  <si>
-    <t>FF09900</t>
-  </si>
-  <si>
-    <t>FF10200</t>
-  </si>
-  <si>
-    <t>FF12101</t>
-  </si>
-  <si>
-    <t>FF12402</t>
-  </si>
-  <si>
-    <t>FF12801</t>
-  </si>
-  <si>
-    <t>FF13601</t>
-  </si>
-  <si>
-    <t>FF15602</t>
-  </si>
-  <si>
-    <t>FF15700</t>
-  </si>
-  <si>
-    <t>FF15902</t>
-  </si>
-  <si>
-    <t>FF16602</t>
-  </si>
-  <si>
-    <t>FF17702</t>
-  </si>
-  <si>
-    <t>FF18603</t>
-  </si>
-  <si>
-    <t>FF18900</t>
-  </si>
-  <si>
-    <t>FF19800</t>
-  </si>
-  <si>
-    <t>FF20100</t>
-  </si>
-  <si>
-    <t>FF22504</t>
-  </si>
-  <si>
-    <t>FF24301</t>
-  </si>
-  <si>
-    <t>FF25000</t>
-  </si>
-  <si>
-    <t>FF25901</t>
+    <t>FF22404</t>
+  </si>
+  <si>
+    <t>FF24201</t>
+  </si>
+  <si>
+    <t>FF24900</t>
+  </si>
+  <si>
+    <t>FF25801</t>
   </si>
   <si>
     <t>It adds to the usual themes of eating, drinking and consuming.</t>
@@ -2129,8 +2123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2193,21 +2187,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2245,7 +2231,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2279,7 +2265,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2314,10 +2299,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2490,16 +2474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2507,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2515,7 +2497,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2523,7 +2505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2531,7 +2513,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2539,7 +2521,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2547,7 +2529,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2555,7 +2537,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2563,7 +2545,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2571,7 +2553,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2579,7 +2561,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2587,7 +2569,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2595,7 +2577,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2603,7 +2585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2611,7 +2593,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2619,7 +2601,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2627,7 +2609,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2635,7 +2617,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2643,7 +2625,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2651,7 +2633,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2659,7 +2641,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2667,7 +2649,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2675,7 +2657,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2683,7 +2665,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2691,7 +2673,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2699,7 +2681,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2707,7 +2689,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2715,7 +2697,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2723,7 +2705,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2731,7 +2713,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2739,7 +2721,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2747,7 +2729,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2755,7 +2737,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2763,7 +2745,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2771,7 +2753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2779,7 +2761,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2787,7 +2769,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2795,7 +2777,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2803,7 +2785,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2811,7 +2793,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2819,7 +2801,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2827,7 +2809,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2835,7 +2817,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2843,7 +2825,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2851,7 +2833,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2859,7 +2841,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2867,7 +2849,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2875,7 +2857,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2883,7 +2865,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2891,7 +2873,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2899,7 +2881,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2907,7 +2889,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2915,7 +2897,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2923,7 +2905,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2931,7 +2913,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2939,7 +2921,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2947,7 +2929,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2955,7 +2937,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2963,7 +2945,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2971,7 +2953,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2979,7 +2961,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2987,7 +2969,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2995,7 +2977,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3003,7 +2985,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3011,7 +2993,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3019,7 +3001,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3027,7 +3009,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -3035,7 +3017,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -3043,7 +3025,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -3051,7 +3033,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -3059,7 +3041,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -3067,7 +3049,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -3075,7 +3057,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -3083,7 +3065,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -3091,7 +3073,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -3099,7 +3081,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -3107,7 +3089,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -3115,7 +3097,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -3123,7 +3105,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -3131,7 +3113,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -3139,7 +3121,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -3147,7 +3129,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -3155,7 +3137,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -3163,7 +3145,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -3171,7 +3153,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -3179,7 +3161,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -3187,7 +3169,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -3195,7 +3177,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -3203,7 +3185,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3211,7 +3193,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -3219,7 +3201,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -3227,7 +3209,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -3235,7 +3217,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -3243,7 +3225,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -3251,7 +3233,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -3259,7 +3241,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -3267,7 +3249,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -3275,7 +3257,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -3289,14 +3271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3304,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -3312,7 +3294,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -3320,7 +3302,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3328,7 +3310,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>521</v>
       </c>
@@ -3336,7 +3318,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>522</v>
       </c>
@@ -3344,7 +3326,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -3352,7 +3334,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>523</v>
       </c>
@@ -3360,7 +3342,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -3368,7 +3350,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>524</v>
       </c>
@@ -3376,7 +3358,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>525</v>
       </c>
@@ -3390,14 +3372,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3405,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>531</v>
       </c>
@@ -3413,7 +3395,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>532</v>
       </c>
@@ -3421,7 +3403,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>533</v>
       </c>
@@ -3429,7 +3411,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3437,7 +3419,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>534</v>
       </c>
@@ -3445,7 +3427,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>535</v>
       </c>
@@ -3453,7 +3435,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -3461,7 +3443,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -3469,7 +3451,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -3477,7 +3459,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>536</v>
       </c>
@@ -3485,7 +3467,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>537</v>
       </c>
@@ -3493,7 +3475,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>538</v>
       </c>
@@ -3507,14 +3489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3522,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>547</v>
       </c>
@@ -3530,7 +3512,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>548</v>
       </c>
@@ -3538,7 +3520,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>549</v>
       </c>
@@ -3546,7 +3528,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>550</v>
       </c>
@@ -3554,7 +3536,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3562,7 +3544,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>551</v>
       </c>
@@ -3570,7 +3552,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>552</v>
       </c>
@@ -3578,7 +3560,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>553</v>
       </c>
@@ -3586,7 +3568,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>424</v>
       </c>
@@ -3594,7 +3576,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>554</v>
       </c>
@@ -3602,7 +3584,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3610,7 +3592,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>409</v>
       </c>
@@ -3618,7 +3600,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>531</v>
       </c>
@@ -3626,7 +3608,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>464</v>
       </c>
@@ -3634,7 +3616,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>555</v>
       </c>
@@ -3642,7 +3624,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -3650,7 +3632,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>533</v>
       </c>
@@ -3658,7 +3640,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>556</v>
       </c>
@@ -3666,7 +3648,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3674,7 +3656,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>557</v>
       </c>
@@ -3682,7 +3664,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -3690,7 +3672,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -3698,7 +3680,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>558</v>
       </c>
@@ -3706,7 +3688,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>559</v>
       </c>
@@ -3714,7 +3696,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>277</v>
       </c>
@@ -3722,7 +3704,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>560</v>
       </c>
@@ -3730,7 +3712,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>561</v>
       </c>
@@ -3738,7 +3720,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>562</v>
       </c>
@@ -3746,7 +3728,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3754,7 +3736,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>473</v>
       </c>
@@ -3762,7 +3744,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>563</v>
       </c>
@@ -3770,7 +3752,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>282</v>
       </c>
@@ -3778,7 +3760,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>564</v>
       </c>
@@ -3786,7 +3768,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>565</v>
       </c>
@@ -3794,7 +3776,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>566</v>
       </c>
@@ -3802,7 +3784,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>567</v>
       </c>
@@ -3810,7 +3792,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>568</v>
       </c>
@@ -3818,7 +3800,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>569</v>
       </c>
@@ -3826,7 +3808,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>570</v>
       </c>
@@ -3834,7 +3816,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>571</v>
       </c>
@@ -3842,7 +3824,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>480</v>
       </c>
@@ -3850,7 +3832,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>572</v>
       </c>
@@ -3858,7 +3840,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>573</v>
       </c>
@@ -3866,7 +3848,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>574</v>
       </c>
@@ -3874,7 +3856,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>575</v>
       </c>
@@ -3882,7 +3864,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>576</v>
       </c>
@@ -3890,7 +3872,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>482</v>
       </c>
@@ -3898,7 +3880,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>577</v>
       </c>
@@ -3912,14 +3894,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3927,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -3935,7 +3917,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -3943,7 +3925,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -3951,7 +3933,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -3959,7 +3941,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -3967,7 +3949,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -3975,7 +3957,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -3983,7 +3965,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3991,7 +3973,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -3999,7 +3981,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4007,7 +3989,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -4015,7 +3997,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -4023,7 +4005,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -4031,7 +4013,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -4039,7 +4021,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4047,7 +4029,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4055,7 +4037,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>427</v>
       </c>
@@ -4063,7 +4045,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>221</v>
       </c>
@@ -4071,7 +4053,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -4079,7 +4061,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>223</v>
       </c>
@@ -4087,7 +4069,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>224</v>
       </c>
@@ -4095,7 +4077,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -4103,7 +4085,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>228</v>
       </c>
@@ -4111,7 +4093,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>235</v>
       </c>
@@ -4119,7 +4101,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>236</v>
       </c>
@@ -4127,7 +4109,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>237</v>
       </c>
@@ -4135,7 +4117,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>238</v>
       </c>
@@ -4143,7 +4125,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -4151,7 +4133,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4159,7 +4141,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -4167,7 +4149,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -4175,7 +4157,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>246</v>
       </c>
@@ -4183,7 +4165,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -4191,7 +4173,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>248</v>
       </c>
@@ -4199,7 +4181,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>249</v>
       </c>
@@ -4207,7 +4189,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -4215,7 +4197,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>250</v>
       </c>
@@ -4223,7 +4205,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>251</v>
       </c>
@@ -4231,7 +4213,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -4239,7 +4221,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>252</v>
       </c>
@@ -4247,7 +4229,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>253</v>
       </c>
@@ -4255,7 +4237,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>255</v>
       </c>
@@ -4263,7 +4245,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>260</v>
       </c>
@@ -4271,7 +4253,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>264</v>
       </c>
@@ -4279,7 +4261,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>266</v>
       </c>
@@ -4287,7 +4269,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -4295,7 +4277,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -4303,7 +4285,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>270</v>
       </c>
@@ -4311,7 +4293,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -4319,7 +4301,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -4327,7 +4309,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -4335,7 +4317,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>280</v>
       </c>
@@ -4343,7 +4325,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>284</v>
       </c>
@@ -4351,7 +4333,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -4359,7 +4341,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>288</v>
       </c>
@@ -4367,7 +4349,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>289</v>
       </c>
@@ -4375,7 +4357,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -4383,7 +4365,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>293</v>
       </c>
@@ -4391,7 +4373,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -4399,7 +4381,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>297</v>
       </c>
@@ -4407,7 +4389,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -4415,7 +4397,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>299</v>
       </c>
@@ -4429,14 +4411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4444,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>608</v>
       </c>
@@ -4452,7 +4434,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>609</v>
       </c>
@@ -4460,7 +4442,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>610</v>
       </c>
@@ -4468,7 +4450,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>611</v>
       </c>
@@ -4476,7 +4458,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>210</v>
       </c>
@@ -4484,7 +4466,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4492,7 +4474,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -4500,7 +4482,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -4508,7 +4490,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>612</v>
       </c>
@@ -4516,7 +4498,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>251</v>
       </c>
@@ -4524,7 +4506,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -4532,7 +4514,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>613</v>
       </c>
@@ -4540,7 +4522,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>614</v>
       </c>
@@ -4548,7 +4530,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>615</v>
       </c>
@@ -4556,7 +4538,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>616</v>
       </c>
@@ -4564,7 +4546,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>617</v>
       </c>
@@ -4578,14 +4560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4593,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>628</v>
       </c>
@@ -4601,7 +4583,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>629</v>
       </c>
@@ -4609,7 +4591,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>630</v>
       </c>
@@ -4617,7 +4599,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>507</v>
       </c>
@@ -4625,7 +4607,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4633,7 +4615,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -4641,7 +4623,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>631</v>
       </c>
@@ -4649,7 +4631,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4657,7 +4639,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4665,7 +4647,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>632</v>
       </c>
@@ -4673,7 +4655,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>407</v>
       </c>
@@ -4681,7 +4663,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>213</v>
       </c>
@@ -4689,7 +4671,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4697,7 +4679,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -4705,7 +4687,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>633</v>
       </c>
@@ -4713,7 +4695,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -4721,7 +4703,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>462</v>
       </c>
@@ -4729,7 +4711,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>516</v>
       </c>
@@ -4737,7 +4719,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -4745,7 +4727,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>220</v>
       </c>
@@ -4753,7 +4735,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4761,7 +4743,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>634</v>
       </c>
@@ -4769,7 +4751,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4777,7 +4759,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -4785,7 +4767,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>227</v>
       </c>
@@ -4793,7 +4775,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4801,7 +4783,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4809,7 +4791,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>555</v>
       </c>
@@ -4817,7 +4799,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>635</v>
       </c>
@@ -4825,7 +4807,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>232</v>
       </c>
@@ -4833,7 +4815,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>636</v>
       </c>
@@ -4841,7 +4823,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>236</v>
       </c>
@@ -4849,7 +4831,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -4857,7 +4839,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>239</v>
       </c>
@@ -4865,7 +4847,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4873,7 +4855,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>637</v>
       </c>
@@ -4881,7 +4863,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>638</v>
       </c>
@@ -4889,7 +4871,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -4897,7 +4879,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>639</v>
       </c>
@@ -4905,7 +4887,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4913,7 +4895,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>243</v>
       </c>
@@ -4921,7 +4903,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>640</v>
       </c>
@@ -4929,7 +4911,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4937,7 +4919,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>612</v>
       </c>
@@ -4945,7 +4927,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -4953,7 +4935,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>252</v>
       </c>
@@ -4961,7 +4943,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>641</v>
       </c>
@@ -4969,7 +4951,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>642</v>
       </c>
@@ -4977,7 +4959,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -4985,7 +4967,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>257</v>
       </c>
@@ -4993,7 +4975,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>643</v>
       </c>
@@ -5001,7 +4983,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -5009,7 +4991,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>644</v>
       </c>
@@ -5017,7 +4999,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -5025,7 +5007,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>410</v>
       </c>
@@ -5033,7 +5015,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>269</v>
       </c>
@@ -5041,7 +5023,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>275</v>
       </c>
@@ -5049,7 +5031,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>645</v>
       </c>
@@ -5057,7 +5039,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>646</v>
       </c>
@@ -5065,7 +5047,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>279</v>
       </c>
@@ -5073,7 +5055,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>647</v>
       </c>
@@ -5081,7 +5063,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>280</v>
       </c>
@@ -5089,7 +5071,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>648</v>
       </c>
@@ -5097,7 +5079,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>649</v>
       </c>
@@ -5105,7 +5087,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>650</v>
       </c>
@@ -5113,7 +5095,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>651</v>
       </c>
@@ -5121,7 +5103,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>289</v>
       </c>
@@ -5129,7 +5111,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>652</v>
       </c>
@@ -5137,7 +5119,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>653</v>
       </c>
@@ -5145,7 +5127,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>432</v>
       </c>
@@ -5153,7 +5135,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -5161,7 +5143,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>293</v>
       </c>
@@ -5169,7 +5151,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>654</v>
       </c>
@@ -5177,7 +5159,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>451</v>
       </c>
@@ -5185,7 +5167,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -5193,7 +5175,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -5201,7 +5183,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>655</v>
       </c>
@@ -5209,7 +5191,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>656</v>
       </c>
@@ -5217,7 +5199,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>657</v>
       </c>
@@ -5225,7 +5207,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>617</v>
       </c>
@@ -5239,14 +5221,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5254,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -5262,7 +5244,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -5270,7 +5252,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -5278,7 +5260,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -5286,7 +5268,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -5294,7 +5276,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -5302,7 +5284,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>202</v>
       </c>
@@ -5310,7 +5292,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -5318,7 +5300,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5326,7 +5308,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -5334,7 +5316,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -5342,7 +5324,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -5350,7 +5332,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -5358,7 +5340,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -5366,7 +5348,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -5374,7 +5356,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -5382,7 +5364,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -5390,7 +5372,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -5398,7 +5380,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>211</v>
       </c>
@@ -5406,7 +5388,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>212</v>
       </c>
@@ -5414,7 +5396,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -5422,7 +5404,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>213</v>
       </c>
@@ -5430,7 +5412,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>214</v>
       </c>
@@ -5438,7 +5420,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -5446,7 +5428,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>216</v>
       </c>
@@ -5454,7 +5436,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>217</v>
       </c>
@@ -5462,7 +5444,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>218</v>
       </c>
@@ -5470,7 +5452,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>219</v>
       </c>
@@ -5478,7 +5460,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -5486,7 +5468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -5494,7 +5476,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>220</v>
       </c>
@@ -5502,7 +5484,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>221</v>
       </c>
@@ -5510,7 +5492,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -5518,7 +5500,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>223</v>
       </c>
@@ -5526,7 +5508,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>224</v>
       </c>
@@ -5534,7 +5516,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>225</v>
       </c>
@@ -5542,7 +5524,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -5550,7 +5532,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>226</v>
       </c>
@@ -5558,7 +5540,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -5566,7 +5548,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5574,7 +5556,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -5582,7 +5564,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -5590,7 +5572,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -5598,7 +5580,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>228</v>
       </c>
@@ -5606,7 +5588,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -5614,7 +5596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>229</v>
       </c>
@@ -5622,7 +5604,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>230</v>
       </c>
@@ -5630,7 +5612,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>231</v>
       </c>
@@ -5638,7 +5620,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>232</v>
       </c>
@@ -5646,7 +5628,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>233</v>
       </c>
@@ -5654,7 +5636,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>234</v>
       </c>
@@ -5662,7 +5644,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>235</v>
       </c>
@@ -5670,7 +5652,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>236</v>
       </c>
@@ -5678,7 +5660,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>237</v>
       </c>
@@ -5686,7 +5668,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>238</v>
       </c>
@@ -5694,7 +5676,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>239</v>
       </c>
@@ -5702,7 +5684,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -5710,7 +5692,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>240</v>
       </c>
@@ -5718,7 +5700,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -5726,7 +5708,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>241</v>
       </c>
@@ -5734,7 +5716,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -5742,7 +5724,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>242</v>
       </c>
@@ -5750,7 +5732,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -5758,7 +5740,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -5766,7 +5748,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>243</v>
       </c>
@@ -5774,7 +5756,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -5782,7 +5764,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -5790,7 +5772,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -5798,7 +5780,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -5806,7 +5788,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>246</v>
       </c>
@@ -5814,7 +5796,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>247</v>
       </c>
@@ -5822,7 +5804,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -5830,7 +5812,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>248</v>
       </c>
@@ -5838,7 +5820,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>249</v>
       </c>
@@ -5846,7 +5828,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -5854,7 +5836,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>250</v>
       </c>
@@ -5862,7 +5844,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>251</v>
       </c>
@@ -5870,7 +5852,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -5878,7 +5860,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -5886,7 +5868,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>252</v>
       </c>
@@ -5894,7 +5876,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>253</v>
       </c>
@@ -5902,7 +5884,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>254</v>
       </c>
@@ -5910,7 +5892,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>255</v>
       </c>
@@ -5918,7 +5900,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -5926,7 +5908,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>257</v>
       </c>
@@ -5934,7 +5916,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>56</v>
       </c>
@@ -5942,7 +5924,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>57</v>
       </c>
@@ -5950,7 +5932,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>258</v>
       </c>
@@ -5958,7 +5940,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>259</v>
       </c>
@@ -5966,7 +5948,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -5974,7 +5956,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>261</v>
       </c>
@@ -5982,7 +5964,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>262</v>
       </c>
@@ -5990,7 +5972,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>263</v>
       </c>
@@ -5998,7 +5980,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>264</v>
       </c>
@@ -6006,7 +5988,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>265</v>
       </c>
@@ -6014,7 +5996,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>266</v>
       </c>
@@ -6022,7 +6004,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>267</v>
       </c>
@@ -6030,7 +6012,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>268</v>
       </c>
@@ -6038,7 +6020,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>269</v>
       </c>
@@ -6046,7 +6028,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>61</v>
       </c>
@@ -6054,7 +6036,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>270</v>
       </c>
@@ -6062,7 +6044,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>271</v>
       </c>
@@ -6070,7 +6052,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>272</v>
       </c>
@@ -6078,7 +6060,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>273</v>
       </c>
@@ -6086,7 +6068,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>63</v>
       </c>
@@ -6094,7 +6076,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>274</v>
       </c>
@@ -6102,7 +6084,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>275</v>
       </c>
@@ -6110,7 +6092,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>276</v>
       </c>
@@ -6118,7 +6100,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>277</v>
       </c>
@@ -6126,7 +6108,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>66</v>
       </c>
@@ -6134,7 +6116,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>278</v>
       </c>
@@ -6142,7 +6124,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>279</v>
       </c>
@@ -6150,7 +6132,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>280</v>
       </c>
@@ -6158,7 +6140,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>281</v>
       </c>
@@ -6166,7 +6148,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>282</v>
       </c>
@@ -6174,7 +6156,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>283</v>
       </c>
@@ -6182,7 +6164,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>284</v>
       </c>
@@ -6190,7 +6172,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>70</v>
       </c>
@@ -6198,7 +6180,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>285</v>
       </c>
@@ -6206,7 +6188,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>71</v>
       </c>
@@ -6214,7 +6196,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>72</v>
       </c>
@@ -6222,7 +6204,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>73</v>
       </c>
@@ -6230,7 +6212,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -6238,7 +6220,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>75</v>
       </c>
@@ -6246,7 +6228,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>286</v>
       </c>
@@ -6254,7 +6236,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>78</v>
       </c>
@@ -6262,7 +6244,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>287</v>
       </c>
@@ -6270,7 +6252,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>80</v>
       </c>
@@ -6278,7 +6260,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>288</v>
       </c>
@@ -6286,7 +6268,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>289</v>
       </c>
@@ -6294,7 +6276,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>290</v>
       </c>
@@ -6302,7 +6284,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>291</v>
       </c>
@@ -6310,7 +6292,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>85</v>
       </c>
@@ -6318,7 +6300,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>292</v>
       </c>
@@ -6326,7 +6308,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>293</v>
       </c>
@@ -6334,7 +6316,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>294</v>
       </c>
@@ -6342,7 +6324,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>91</v>
       </c>
@@ -6350,7 +6332,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>295</v>
       </c>
@@ -6358,7 +6340,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>296</v>
       </c>
@@ -6366,7 +6348,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>92</v>
       </c>
@@ -6374,7 +6356,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>297</v>
       </c>
@@ -6382,7 +6364,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>298</v>
       </c>
@@ -6390,7 +6372,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>94</v>
       </c>
@@ -6398,7 +6380,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>299</v>
       </c>
@@ -6406,7 +6388,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>95</v>
       </c>
@@ -6414,7 +6396,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>300</v>
       </c>
@@ -6428,14 +6410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6443,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6451,7 +6433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>406</v>
       </c>
@@ -6459,7 +6441,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>407</v>
       </c>
@@ -6467,7 +6449,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>408</v>
       </c>
@@ -6475,7 +6457,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -6483,7 +6465,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>409</v>
       </c>
@@ -6491,7 +6473,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -6499,7 +6481,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>265</v>
       </c>
@@ -6507,7 +6489,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -6515,7 +6497,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>410</v>
       </c>
@@ -6523,7 +6505,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>411</v>
       </c>
@@ -6531,7 +6513,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -6539,7 +6521,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>412</v>
       </c>
@@ -6547,7 +6529,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>413</v>
       </c>
@@ -6555,7 +6537,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>300</v>
       </c>
@@ -6569,16 +6551,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6586,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>422</v>
       </c>
@@ -6594,7 +6574,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>423</v>
       </c>
@@ -6602,7 +6582,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -6610,7 +6590,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>407</v>
       </c>
@@ -6618,7 +6598,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>424</v>
       </c>
@@ -6626,7 +6606,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>425</v>
       </c>
@@ -6634,7 +6614,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -6642,7 +6622,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -6650,7 +6630,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>426</v>
       </c>
@@ -6658,7 +6638,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>427</v>
       </c>
@@ -6666,7 +6646,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6674,7 +6654,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>428</v>
       </c>
@@ -6682,7 +6662,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>248</v>
       </c>
@@ -6690,7 +6670,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -6698,7 +6678,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>429</v>
       </c>
@@ -6706,7 +6686,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -6714,7 +6694,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>251</v>
       </c>
@@ -6722,7 +6702,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>430</v>
       </c>
@@ -6730,7 +6710,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>431</v>
       </c>
@@ -6738,7 +6718,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -6746,7 +6726,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -6754,7 +6734,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -6762,7 +6742,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>432</v>
       </c>
@@ -6770,7 +6750,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>433</v>
       </c>
@@ -6778,7 +6758,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -6792,16 +6772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6809,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -6817,7 +6795,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>207</v>
       </c>
@@ -6825,7 +6803,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>424</v>
       </c>
@@ -6833,7 +6811,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>446</v>
       </c>
@@ -6841,7 +6819,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -6849,7 +6827,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -6857,7 +6835,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -6865,7 +6843,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6873,7 +6851,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -6881,7 +6859,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>448</v>
       </c>
@@ -6889,7 +6867,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -6897,7 +6875,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -6905,7 +6883,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>232</v>
       </c>
@@ -6913,7 +6891,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -6921,7 +6899,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -6929,7 +6907,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>449</v>
       </c>
@@ -6937,7 +6915,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -6945,7 +6923,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>450</v>
       </c>
@@ -6953,7 +6931,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>451</v>
       </c>
@@ -6961,7 +6939,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -6975,14 +6953,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6990,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>422</v>
       </c>
@@ -6998,7 +6976,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7006,7 +6984,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -7014,7 +6992,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -7022,7 +7000,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>459</v>
       </c>
@@ -7030,7 +7008,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -7038,7 +7016,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>460</v>
       </c>
@@ -7046,7 +7024,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>210</v>
       </c>
@@ -7054,7 +7032,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -7062,7 +7040,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>461</v>
       </c>
@@ -7070,7 +7048,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -7078,7 +7056,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>463</v>
       </c>
@@ -7086,7 +7064,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>464</v>
       </c>
@@ -7094,7 +7072,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -7102,7 +7080,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -7110,7 +7088,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -7118,7 +7096,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>467</v>
       </c>
@@ -7126,7 +7104,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>468</v>
       </c>
@@ -7134,7 +7112,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>469</v>
       </c>
@@ -7142,7 +7120,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>240</v>
       </c>
@@ -7150,7 +7128,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -7158,7 +7136,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -7166,7 +7144,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -7174,7 +7152,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>253</v>
       </c>
@@ -7182,7 +7160,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>470</v>
       </c>
@@ -7190,7 +7168,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>257</v>
       </c>
@@ -7198,7 +7176,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>471</v>
       </c>
@@ -7206,7 +7184,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>472</v>
       </c>
@@ -7214,7 +7192,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>473</v>
       </c>
@@ -7222,7 +7200,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>282</v>
       </c>
@@ -7230,7 +7208,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>474</v>
       </c>
@@ -7238,7 +7216,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>285</v>
       </c>
@@ -7246,7 +7224,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>475</v>
       </c>
@@ -7254,7 +7232,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>476</v>
       </c>
@@ -7262,7 +7240,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>477</v>
       </c>
@@ -7270,7 +7248,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>478</v>
       </c>
@@ -7278,7 +7256,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>479</v>
       </c>
@@ -7286,7 +7264,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>480</v>
       </c>
@@ -7294,7 +7272,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>481</v>
       </c>
@@ -7302,7 +7280,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>413</v>
       </c>
@@ -7310,7 +7288,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>482</v>
       </c>
@@ -7318,7 +7296,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>300</v>
       </c>
@@ -7332,14 +7310,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7347,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -7355,7 +7333,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -7363,7 +7341,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -7371,7 +7349,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -7379,7 +7357,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -7393,14 +7371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7408,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>507</v>
       </c>
@@ -7416,7 +7394,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>459</v>
       </c>
@@ -7424,7 +7402,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>508</v>
       </c>
@@ -7432,7 +7410,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>509</v>
       </c>
@@ -7440,7 +7418,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -7448,7 +7426,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>510</v>
       </c>
@@ -7456,7 +7434,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>482</v>
       </c>
@@ -7470,14 +7448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7485,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>205</v>
       </c>
@@ -7493,7 +7471,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7501,7 +7479,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>209</v>
       </c>
@@ -7509,7 +7487,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>515</v>
       </c>
@@ -7517,7 +7495,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -7525,7 +7503,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>516</v>
       </c>
@@ -7533,7 +7511,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -7541,7 +7519,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>517</v>
       </c>
@@ -7549,7 +7527,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7557,7 +7535,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>251</v>
       </c>
@@ -7565,7 +7543,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>271</v>
       </c>
@@ -7573,7 +7551,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -7581,7 +7559,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>272</v>
       </c>
@@ -7589,7 +7567,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>273</v>
       </c>
@@ -7597,7 +7575,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>274</v>
       </c>
@@ -7605,7 +7583,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>287</v>
       </c>
